--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="static_table_1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>static_table_1_id</t>
+    <t>static_table_1_refid</t>
   </si>
 </sst>
 </file>
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="static_table_1" sheetId="1" r:id="rId1"/>
     <sheet name="dynamic_table_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -28,12 +28,15 @@
   <si>
     <t>static_table_1_refid</t>
   </si>
+  <si>
+    <t>some_col</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -197,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,16 +374,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,88 +396,115 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>"name" &amp; A2</f>
-        <v>name1</v>
+        <f>"st1 " &amp;  B$1 &amp; " " &amp; A2</f>
+        <v>st1 name 1</v>
       </c>
       <c r="C2" t="str">
-        <f>"desc" &amp; A2</f>
-        <v>desc1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>"st1 " &amp;  C$1 &amp; " " &amp; $A2</f>
+        <v>st1 desc 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D7" si="0">"st1 " &amp;  D$1 &amp; " " &amp; $A2</f>
+        <v>st1 some_col 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B7" si="0">"name" &amp; A3</f>
-        <v>name2</v>
+        <f t="shared" ref="B3:B7" si="1">"st1 " &amp;  B$1 &amp; " " &amp; A3</f>
+        <v>st1 name 2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C7" si="1">"desc" &amp; A3</f>
-        <v>desc2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C7" si="2">"st1 " &amp;  C$1 &amp; " " &amp; $A3</f>
+        <v>st1 desc 2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>st1 some_col 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>name3</v>
+        <f t="shared" si="1"/>
+        <v>st1 name 3</v>
       </c>
       <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>st1 desc 3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>st1 some_col 3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
         <f t="shared" si="1"/>
-        <v>desc3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>st1 name 4</v>
+      </c>
+      <c r="C5" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>name4</v>
-      </c>
-      <c r="C5" t="str">
+        <v>st1 desc 4</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>st1 some_col 4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>desc4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>st1 name 5</v>
+      </c>
+      <c r="C6" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>name5</v>
-      </c>
-      <c r="C6" t="str">
+        <v>st1 desc 5</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>st1 some_col 5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>desc5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>st1 name 6</v>
+      </c>
+      <c r="C7" t="str">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>name6</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>desc6</v>
+        <v>st1 desc 6</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>st1 some_col 6</v>
       </c>
     </row>
   </sheetData>
@@ -483,19 +514,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,75 +541,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>"name" &amp; A2</f>
-        <v>name1</v>
+        <f>"dt1 " &amp;  B$1 &amp; " " &amp; A2</f>
+        <v>dt1 name 1</v>
       </c>
       <c r="C2" t="str">
-        <f>"desc" &amp; A2</f>
-        <v>desc1</v>
+        <f>"dt1 " &amp;  C$1 &amp; " " &amp; B2</f>
+        <v>dt1 desc dt1 name 1</v>
       </c>
       <c r="D2">
-        <f>A2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B5" si="0">"name" &amp; A3</f>
-        <v>name2</v>
+        <f t="shared" ref="B3:C5" si="0">"dt1 " &amp;  B$1 &amp; " " &amp; A3</f>
+        <v>dt1 name 2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C5" si="1">"desc" &amp; A3</f>
-        <v>desc2</v>
+        <f t="shared" si="0"/>
+        <v>dt1 desc dt1 name 2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="2">A3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f t="shared" ref="A4:A5" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>dt1 name 3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>dt1 desc dt1 name 3</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A5" si="3">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>name3</v>
-      </c>
-      <c r="C4" t="str">
+    <row r="5" spans="1:4">
+      <c r="A5">
         <f t="shared" si="1"/>
-        <v>desc3</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>name4</v>
+        <v>dt1 name 4</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>desc4</v>
+        <f t="shared" si="0"/>
+        <v>dt1 desc dt1 name 4</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="static_table_1" sheetId="1" r:id="rId1"/>
     <sheet name="dynamic_table_2" sheetId="2" r:id="rId2"/>
+    <sheet name="table_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -31,12 +32,15 @@
   <si>
     <t>some_col</t>
   </si>
+  <si>
+    <t>table_3_refid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +169,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -199,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,19 +380,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +406,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,8 +426,11 @@
         <f t="shared" ref="D2:D7" si="0">"st1 " &amp;  D$1 &amp; " " &amp; $A2</f>
         <v>st1 some_col 1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -434,8 +447,11 @@
         <f t="shared" si="0"/>
         <v>st1 some_col 2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
@@ -452,8 +468,11 @@
         <f t="shared" si="0"/>
         <v>st1 some_col 3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -470,8 +489,11 @@
         <f t="shared" si="0"/>
         <v>st1 some_col 4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -488,8 +510,11 @@
         <f t="shared" si="0"/>
         <v>st1 some_col 5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -505,6 +530,9 @@
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>st1 some_col 6</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -514,20 +542,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -557,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -574,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A5" si="1">A3+1</f>
         <v>3</v>
@@ -591,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -606,6 +634,88 @@
       </c>
       <c r="D5">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"t3 " &amp;  B$1 &amp; " " &amp; A2</f>
+        <v>t3 name 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B7" si="0">"t3 " &amp;  B$1 &amp; " " &amp; A3</f>
+        <v>t3 name 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>t3 name 3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>t3 name 4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>t3 name 5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>t3 name 6</v>
       </c>
     </row>
   </sheetData>
